--- a/reports-api/src/reports_api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/reports-api/src/reports_api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aot\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\reports-api\src\reports_api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5438CB-0A82-4272-91F7-7096B40B4022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACD2457-DD20-4C0B-B59D-A92E18D13181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A853713A-B735-4946-989C-636E29001BC2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -294,12 +294,6 @@
     <t>DuplicatePhase</t>
   </si>
   <si>
-    <t>{phase_id: 1}</t>
-  </si>
-  <si>
-    <t>{phase_id: 2}</t>
-  </si>
-  <si>
     <t>CreateNewWork</t>
   </si>
   <si>
@@ -337,6 +331,15 @@
   </si>
   <si>
     <t>DisableWorkStartDate</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{phase_name:Notification Review,work_type_id: 1, ea_act_id: 3 }</t>
+  </si>
+  <si>
+    <t>{phase_name:Notification Decision,work_type_id: 1, ea_act_id: 3 }</t>
   </si>
 </sst>
 </file>
@@ -731,19 +734,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -769,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -795,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -830,23 +833,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153731F1-A4DA-4C0A-A099-407D72EC11B0}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -881,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -913,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -948,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -983,7 +986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2439,17 +2442,17 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
         <v>69</v>
@@ -2466,15 +2469,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>54</v>
+      <c r="C2">
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>70</v>
@@ -2483,15 +2486,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>65</v>
+      <c r="C3">
+        <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>71</v>
@@ -2500,15 +2503,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
+      <c r="C4">
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>72</v>
@@ -2517,15 +2520,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
-        <v>51</v>
+      <c r="C5">
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>73</v>
@@ -2534,15 +2537,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
-        <v>51</v>
+      <c r="C6">
+        <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>74</v>
@@ -2551,15 +2554,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
+      <c r="C7">
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>75</v>
@@ -2568,15 +2571,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>37</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
+      <c r="C8">
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>71</v>
@@ -2585,15 +2588,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>40</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
+      <c r="C9">
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>72</v>
@@ -2612,19 +2615,19 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>78</v>
@@ -2647,231 +2650,300 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4" t="s">
         <v>83</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
       <c r="D5" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="D6" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
       <c r="D7" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
       <c r="D8" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
       <c r="D9" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
       <c r="D10" t="s">
         <v>82</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
       <c r="D11" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
       <c r="D13" t="s">
         <v>83</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
       <c r="D14" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
       </c>
       <c r="G14">
         <v>13</v>

--- a/reports-api/src/reports_api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/reports-api/src/reports_api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\reports-api\src\reports_api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962B555B-D371-49A6-A92F-963FDB87C1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E7FDA-CA54-409B-8A25-AE82A082CB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A853713A-B735-4946-989C-636E29001BC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A853713A-B735-4946-989C-636E29001BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -282,12 +282,6 @@
     <t>CloseWork</t>
   </si>
   <si>
-    <t>AllEventsDeactivated</t>
-  </si>
-  <si>
-    <t>AllEventsDeleted</t>
-  </si>
-  <si>
     <t>CloseEverything</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>{"work_type_id": 2}</t>
+  </si>
+  <si>
+    <t>DeactivateAllEvents</t>
+  </si>
+  <si>
+    <t>DeleteAllEvents</t>
   </si>
 </sst>
 </file>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153731F1-A4DA-4C0A-A099-407D72EC11B0}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2337,7 +2337,7 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E45" t="s">
@@ -2442,7 +2442,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2460,7 +2460,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>69</v>
@@ -2614,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615D2D04-A447-4153-A2A1-74DBF2689398}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2641,7 +2641,7 @@
         <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>78</v>
@@ -2664,10 +2664,10 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2684,13 +2684,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2707,13 +2707,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2730,13 +2730,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2753,13 +2753,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2776,13 +2776,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2799,13 +2799,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -2822,13 +2822,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -2845,13 +2845,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -2871,10 +2871,10 @@
         <v>80</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -2891,13 +2891,13 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -2914,13 +2914,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -2937,13 +2937,13 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>13</v>

--- a/reports-api/src/reports_api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/reports-api/src/reports_api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\reports-api\src\reports_api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E7FDA-CA54-409B-8A25-AE82A082CB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766269DE-C7DD-4141-B5F5-B5A591DA342C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A853713A-B735-4946-989C-636E29001BC2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -340,6 +340,21 @@
   </si>
   <si>
     <t>DeleteAllEvents</t>
+  </si>
+  <si>
+    <t>EventPosition</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>MultipleDays</t>
   </si>
 </sst>
 </file>
@@ -831,25 +846,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153731F1-A4DA-4C0A-A099-407D72EC11B0}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -863,28 +879,34 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -895,28 +917,34 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
+      <c r="J2" s="6">
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -929,29 +957,35 @@
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
         <v>-7</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -964,29 +998,35 @@
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="6">
+      <c r="J4" s="6">
         <v>-7</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -996,29 +1036,35 @@
       <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="6">
+      <c r="J5" s="6">
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>30</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1031,29 +1077,35 @@
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
+      <c r="J6" s="6">
+        <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1066,29 +1118,35 @@
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1098,29 +1156,35 @@
       <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
+      <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1130,29 +1194,35 @@
       <c r="D9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
+      <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1165,27 +1235,33 @@
       <c r="D10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
+      <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1198,29 +1274,35 @@
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="6">
+      <c r="J11" s="6">
         <v>-7</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1233,29 +1315,35 @@
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="6">
+      <c r="J12" s="6">
         <v>-7</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1265,29 +1353,35 @@
       <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
+      <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1300,29 +1394,35 @@
       <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
+      <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1335,29 +1435,35 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1367,29 +1473,35 @@
       <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
+      <c r="J16" s="6">
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1399,29 +1511,35 @@
       <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
+      <c r="J17" s="6">
         <v>0</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1431,29 +1549,35 @@
       <c r="D18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
+      <c r="J18" s="6">
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1466,29 +1590,35 @@
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
+      <c r="J19" s="6">
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1501,29 +1631,35 @@
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
+      <c r="J20" s="6">
         <v>0</v>
       </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1533,29 +1669,35 @@
       <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="b">
+      <c r="J21" s="6">
         <v>0</v>
       </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1568,29 +1710,35 @@
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>43</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="b">
+      <c r="J22" s="6">
         <v>0</v>
       </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1603,29 +1751,35 @@
       <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>44</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
+      <c r="J23" s="6">
         <v>0</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1635,29 +1789,35 @@
       <c r="D24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>48</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
+      <c r="J24" s="6">
         <v>0</v>
       </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1670,29 +1830,35 @@
       <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>43</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
+      <c r="J25" s="6">
         <v>0</v>
       </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1705,29 +1871,35 @@
       <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>44</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
+      <c r="J26" s="6">
         <v>0</v>
       </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1737,29 +1909,35 @@
       <c r="D27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>49</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
+      <c r="J27" s="6">
         <v>0</v>
       </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1772,29 +1950,35 @@
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>43</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
+      <c r="J28" s="6">
         <v>0</v>
       </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1807,29 +1991,35 @@
       <c r="D29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>44</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
+      <c r="J29" s="6">
         <v>0</v>
       </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1839,29 +2029,35 @@
       <c r="D30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>41</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
+      <c r="J30" s="6">
         <v>0</v>
       </c>
       <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1871,29 +2067,35 @@
       <c r="D31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>45</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="6">
+      <c r="J31" s="6">
         <v>50</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1903,29 +2105,35 @@
       <c r="D32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>20</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>56</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="6">
+      <c r="J32" s="6">
         <v>5</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1938,29 +2146,35 @@
       <c r="D33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>20</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>44</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
+      <c r="J33" s="6">
+        <v>0</v>
       </c>
       <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1970,29 +2184,35 @@
       <c r="D34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
         <v>20</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>42</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="b">
+      <c r="J34" s="6">
         <v>0</v>
       </c>
       <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2002,29 +2222,35 @@
       <c r="D35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>20</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>47</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="b">
+      <c r="J35" s="6">
         <v>0</v>
       </c>
       <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2037,29 +2263,35 @@
       <c r="D36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>20</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>43</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="b">
+      <c r="J36" s="6">
         <v>0</v>
       </c>
       <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2072,29 +2304,35 @@
       <c r="D37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
         <v>20</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>44</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="b">
+      <c r="J37" s="6">
         <v>0</v>
       </c>
       <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2104,29 +2342,35 @@
       <c r="D38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>20</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>48</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="b">
+      <c r="J38" s="6">
         <v>0</v>
       </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2139,29 +2383,35 @@
       <c r="D39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
         <v>20</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>43</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>59</v>
       </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="b">
+      <c r="J39" s="6">
         <v>0</v>
       </c>
       <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2174,29 +2424,35 @@
       <c r="D40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
         <v>20</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>44</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="b">
+      <c r="J40" s="6">
         <v>0</v>
       </c>
       <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2206,29 +2462,35 @@
       <c r="D41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>20</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>49</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
+      <c r="J41" s="6">
         <v>0</v>
       </c>
       <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2241,29 +2503,35 @@
       <c r="D42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
         <v>20</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>43</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
+      <c r="J42" s="6">
         <v>0</v>
       </c>
       <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2276,29 +2544,35 @@
       <c r="D43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
         <v>20</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>44</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="b">
+      <c r="J43" s="6">
         <v>0</v>
       </c>
       <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2308,29 +2582,35 @@
       <c r="D44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
         <v>20</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>41</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="b">
+      <c r="J44" s="6">
         <v>0</v>
       </c>
       <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2340,29 +2620,35 @@
       <c r="D45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
         <v>20</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>48</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="6">
+      <c r="J45" s="6">
         <v>10</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
       <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2375,29 +2661,35 @@
       <c r="D46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
         <v>20</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>43</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" t="b">
-        <v>1</v>
+      <c r="J46" s="6">
+        <v>0</v>
       </c>
       <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2410,25 +2702,31 @@
       <c r="D47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
         <v>20</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>44</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>59</v>
       </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="b">
-        <v>1</v>
+      <c r="J47" s="6">
+        <v>0</v>
       </c>
       <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47">
         <v>46</v>
       </c>
     </row>
